--- a/files/samples/CLASS 1-4 SA-1.xlsx
+++ b/files/samples/CLASS 1-4 SA-1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>GYAN GANGA INTERNATIONAL SCHOOL</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Good</t>
+  </si>
+  <si>
+    <t>ABSENT: AB</t>
   </si>
 </sst>
 </file>
@@ -381,11 +384,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,18 +717,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -736,18 +739,18 @@
       <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -758,18 +761,18 @@
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -780,14 +783,16 @@
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -893,9 +898,9 @@
       <c r="G8" s="4">
         <v>55</v>
       </c>
-      <c r="H8" s="15" t="e">
-        <f>C8+D8+E8+F8+F8+G8</f>
-        <v>#VALUE!</v>
+      <c r="H8" s="15">
+        <f>SUMIF(C8:G8,"&lt;&gt;#AB")</f>
+        <v>230</v>
       </c>
       <c r="I8" s="21">
         <v>100</v>
@@ -934,9 +939,9 @@
       <c r="G9" s="5">
         <v>55</v>
       </c>
-      <c r="H9" s="15" t="e">
-        <f t="shared" ref="H8:H56" si="0">C9+D9+E9+F9+G9</f>
-        <v>#VALUE!</v>
+      <c r="H9" s="15">
+        <f t="shared" ref="H9:H56" si="0">SUMIF(C9:G9,"&lt;&gt;#AB")</f>
+        <v>250</v>
       </c>
       <c r="I9" s="13">
         <v>110</v>
@@ -975,9 +980,9 @@
       <c r="G10" s="5">
         <v>55</v>
       </c>
-      <c r="H10" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>225</v>
       </c>
       <c r="I10" s="13">
         <v>115</v>

--- a/files/samples/CLASS 1-4 SA-1.xlsx
+++ b/files/samples/CLASS 1-4 SA-1.xlsx
@@ -384,11 +384,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,18 +717,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -739,18 +739,18 @@
       <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -761,18 +761,18 @@
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -783,16 +783,16 @@
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
